--- a/AndroidMaterial.xlsx
+++ b/AndroidMaterial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\document\my_project\android_studio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\document\my_project\git\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3D514-CBCF-4135-A13E-D2BDDF14C393}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3DDA5-DB28-4F2C-8666-BB39C6589770}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{222586B3-5BB9-47EA-981D-895DEA5CC057}"/>
   </bookViews>
@@ -25,19 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ProgressBar</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/reference/android/widget/ProgressBar.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -61,13 +73,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBECE46-0004-4AB9-A50E-F1B658391690}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +411,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D6336836-DEE7-46E3-B598-E57611E16A30}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>